--- a/小号 (自动保存的).xlsx
+++ b/小号 (自动保存的).xlsx
@@ -122,10 +122,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>网名不要太长1993/Wangming93</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>vmy44363@163.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -155,6 +151,10 @@
   </si>
   <si>
     <t>摩呼啊罗迦/Mohu789【废了】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网名不要太长1993/Wangming93【废了】</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -524,7 +524,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -595,7 +595,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>17</v>
@@ -635,36 +635,36 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="C5">
         <v>18814358008</v>
       </c>
       <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
         <v>28</v>
-      </c>
-      <c r="G5" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="C6">
         <v>13622683834</v>
       </c>
       <c r="F6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" t="s">
         <v>32</v>
-      </c>
-      <c r="G6" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/小号 (自动保存的).xlsx
+++ b/小号 (自动保存的).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="8310" windowHeight="3570"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>注册IP地区</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,14 +155,150 @@
   </si>
   <si>
     <t>网名不要太长1993/Wangming93【废了】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱情睡醒了没有1995/Aiqing1995</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20131027 1413</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mic36981@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山东济南联通11415</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光着脚丫跳生命/Guangzhe86</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nkb95740@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福州电信3890</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20131027 1515</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生如夏花飞爹/Shengru78</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海电信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20131027 1555</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津联通9862</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跨世纪的潇洒人生/Kuangshiji86</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aji67237@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四川成都10189</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命是要怒放的/Shengming79</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dpu98610@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20131027 1723</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20131027 1656</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20131027 1824</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜕变的蜗牛慢慢的/Tuibian2013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖北黄冈7755</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pmr63832@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山东青岛9146</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向钱看啊向厚赚了/Xiang1999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20131027 1924</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄岩后生仔/Huang89</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pfn16109@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山东潍坊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20131029 2038</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京联通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20131029 2120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会唱歌的木头ren/Chang789</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fjx17886@163.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,6 +319,14 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -212,11 +356,14 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -226,16 +373,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -309,7 +451,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -344,7 +485,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -520,14 +660,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="25.75" customWidth="1"/>
     <col min="2" max="2" width="26.875" customWidth="1"/>
@@ -538,7 +678,7 @@
     <col min="9" max="9" width="24.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -570,7 +710,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -593,7 +733,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -616,7 +756,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -633,7 +773,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -650,7 +790,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -665,6 +805,150 @@
       </c>
       <c r="G6" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8">
+        <v>15948152984</v>
+      </c>
+      <c r="F8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9">
+        <v>15019251264</v>
+      </c>
+      <c r="F9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10">
+        <v>13642761092</v>
+      </c>
+      <c r="F10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11">
+        <v>18820293671</v>
+      </c>
+      <c r="F11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12">
+        <v>13642330299</v>
+      </c>
+      <c r="F12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13">
+        <v>13427607919</v>
+      </c>
+      <c r="F13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14">
+        <v>13480439557</v>
+      </c>
+      <c r="F14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15">
+        <v>13714019841</v>
+      </c>
+      <c r="F15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -675,19 +959,26 @@
     <hyperlink ref="B4" r:id="rId3"/>
     <hyperlink ref="B5" r:id="rId4"/>
     <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B10" r:id="rId8"/>
+    <hyperlink ref="B11" r:id="rId9"/>
+    <hyperlink ref="B12" r:id="rId10"/>
+    <hyperlink ref="B14" r:id="rId11"/>
+    <hyperlink ref="B15" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId13"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -696,12 +987,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/小号 (自动保存的).xlsx
+++ b/小号 (自动保存的).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <si>
     <t>注册IP地区</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -291,6 +291,106 @@
   </si>
   <si>
     <t>fjx17886@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>61.155.106.181</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江苏南京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20131110 1623</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男人的梦想干/Nanren79</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cmk19906@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>218.4.232.130</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江苏苏州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20131110 1724</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尤仁涛/320324198009026994</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真人公仔店/Zhenren88/Zhenren89</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>118.244.144.27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京电信通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20131110 1813</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失去你的温柔93/Shiqu93</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vyk57536@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123.249.27.214</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贵阳电信10208</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞天大牛牛皮/Feitian82/Feitianniu82</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魏安南/513322198203275105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20131116 1814</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.82.184.210</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陕西西安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20131117 1814</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戈壁春天80/Gebi80/Gebichun80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王伟誉/610628198204149835</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -661,15 +761,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="25.75" customWidth="1"/>
+    <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="2" width="26.875" customWidth="1"/>
     <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5" customWidth="1"/>
@@ -949,6 +1049,106 @@
       </c>
       <c r="G15" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16">
+        <v>18706884652</v>
+      </c>
+      <c r="F16" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17">
+        <v>13544165130</v>
+      </c>
+      <c r="F17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" t="s">
+        <v>75</v>
+      </c>
+      <c r="H17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18">
+        <v>13422711372</v>
+      </c>
+      <c r="F18" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" t="s">
+        <v>80</v>
+      </c>
+      <c r="H18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19">
+        <v>18219209503</v>
+      </c>
+      <c r="F19" t="s">
+        <v>88</v>
+      </c>
+      <c r="G19" t="s">
+        <v>85</v>
+      </c>
+      <c r="H19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20">
+        <v>18320814552</v>
+      </c>
+      <c r="F20" t="s">
+        <v>91</v>
+      </c>
+      <c r="G20" t="s">
+        <v>90</v>
+      </c>
+      <c r="H20" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -966,9 +1166,11 @@
     <hyperlink ref="B12" r:id="rId10"/>
     <hyperlink ref="B14" r:id="rId11"/>
     <hyperlink ref="B15" r:id="rId12"/>
+    <hyperlink ref="B16" r:id="rId13"/>
+    <hyperlink ref="B18" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId15"/>
 </worksheet>
 </file>
 

--- a/小号 (自动保存的).xlsx
+++ b/小号 (自动保存的).xlsx
@@ -158,10 +158,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>爱情睡醒了没有1995/Aiqing1995</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20131027 1413</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -391,6 +387,10 @@
   </si>
   <si>
     <t>王伟誉/610628198204149835</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱情睡醒了没有95/Aiqing1995/Aiqing1996[废了]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -763,8 +763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -909,246 +909,246 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="G7" t="s">
         <v>37</v>
-      </c>
-      <c r="F7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="C8">
         <v>15948152984</v>
       </c>
       <c r="F8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9">
         <v>15019251264</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="C10">
         <v>13642761092</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="C11">
         <v>18820293671</v>
       </c>
       <c r="F11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12">
         <v>13642330299</v>
       </c>
       <c r="F12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13">
         <v>13427607919</v>
       </c>
       <c r="F13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="C14">
         <v>13480439557</v>
       </c>
       <c r="F14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="C15">
         <v>13714019841</v>
       </c>
       <c r="F15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="C16">
         <v>18706884652</v>
       </c>
       <c r="F16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C17">
         <v>13544165130</v>
       </c>
       <c r="F17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="C18">
         <v>13422711372</v>
       </c>
       <c r="F18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" t="s">
         <v>86</v>
-      </c>
-      <c r="B19" t="s">
-        <v>87</v>
       </c>
       <c r="C19">
         <v>18219209503</v>
       </c>
       <c r="F19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" t="s">
         <v>92</v>
-      </c>
-      <c r="B20" t="s">
-        <v>93</v>
       </c>
       <c r="C20">
         <v>18320814552</v>
       </c>
       <c r="F20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/小号 (自动保存的).xlsx
+++ b/小号 (自动保存的).xlsx
@@ -154,10 +154,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>网名不要太长1993/Wangming93【废了】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20131027 1413</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -390,7 +386,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>爱情睡醒了没有95/Aiqing1995/Aiqing1996[废了]</t>
+    <t>网名不要太长1993/Wangming93/Wangming94【废了】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱情睡醒了没有95/aiqing1995/Aiqing1996[废了]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -419,6 +419,7 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -763,8 +764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -875,7 +876,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>26</v>
@@ -912,243 +913,243 @@
         <v>93</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" t="s">
         <v>36</v>
-      </c>
-      <c r="F7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="C8">
         <v>15948152984</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9">
         <v>15019251264</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="C10">
         <v>13642761092</v>
       </c>
       <c r="F10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="C11">
         <v>18820293671</v>
       </c>
       <c r="F11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C12">
         <v>13642330299</v>
       </c>
       <c r="F12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13">
         <v>13427607919</v>
       </c>
       <c r="F13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="C14">
         <v>13480439557</v>
       </c>
       <c r="F14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="C15">
         <v>13714019841</v>
       </c>
       <c r="F15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="C16">
         <v>18706884652</v>
       </c>
       <c r="F16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C17">
         <v>13544165130</v>
       </c>
       <c r="F17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="C18">
         <v>13422711372</v>
       </c>
       <c r="F18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" t="s">
         <v>85</v>
-      </c>
-      <c r="B19" t="s">
-        <v>86</v>
       </c>
       <c r="C19">
         <v>18219209503</v>
       </c>
       <c r="F19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" t="s">
         <v>91</v>
-      </c>
-      <c r="B20" t="s">
-        <v>92</v>
       </c>
       <c r="C20">
         <v>18320814552</v>
       </c>
       <c r="F20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
